--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2865096815737001</v>
+        <v>0.28605425815375018</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30760003601914648</v>
+        <v>0.30723348576573195</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0050655832476984141</v>
+        <v>-0.0050366519912486063</v>
       </c>
       <c r="E3" s="0">
-        <v>-5.8290802101131194e-05</v>
+        <v>-6.159139440913804e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00093638837771724325</v>
+        <v>-0.00090677407230415534</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00047461713243395046</v>
+        <v>0.0004757537152620489</v>
       </c>
       <c r="H3" s="0">
-        <v>-9.4437046079703561e-05</v>
+        <v>-9.3470334125687226e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0007702225574778294</v>
+        <v>-0.00077020232959207281</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00018548302570065012</v>
+        <v>-0.0001854818090707977</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29167363638927502</v>
+        <v>0.29123570985468972</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0020738774159268711</v>
+        <v>-0.00243982636913941</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00011200569791990173</v>
+        <v>0.00011156240016960714</v>
       </c>
       <c r="F4" s="0">
-        <v>1.789590248753761e-05</v>
+        <v>1.7853189110290693e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00017908187476029603</v>
+        <v>0.00017889573792732603</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0020027589183448757</v>
+        <v>-0.0019967513735665043</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00012966317224300775</v>
+        <v>0.00012833534763744954</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00032555678520201914</v>
+        <v>0.00032555019764213267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30047836893114638</v>
+        <v>0.30101904182279238</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0072264121268527199</v>
+        <v>0.0077086224628601747</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0069313154772388053</v>
+        <v>-0.0069530963805919744</v>
       </c>
       <c r="E5" s="0">
-        <v>-3.8058599731331891e-05</v>
+        <v>-3.3387121585439691e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00019846894581538761</v>
+        <v>0.00018647200700838709</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0014661721107352449</v>
+        <v>-0.0014644143918481258</v>
       </c>
       <c r="H5" s="0">
-        <v>-8.9448416277777031e-06</v>
+        <v>-9.1836984960982858e-06</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00056088232570880006</v>
+        <v>-0.00056010951366065051</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>2.1078232840809896e-05</v>
+        <v>2.1070898450548103e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.26844781943503748</v>
+        <v>0.26811436606244127</v>
       </c>
       <c r="C6" s="0">
-        <v>0.030083535162794564</v>
+        <v>0.029997961323857295</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0001211016032441833</v>
+        <v>-0.00012121225068348919</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.6049919249825049e-05</v>
+        <v>-4.5492241436935451e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.3659172631382138e-05</v>
+        <v>-7.4344151850198246e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0022334335816754109</v>
+        <v>-0.0022479246130917437</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.3220247996992285e-05</v>
+        <v>1.3222682443192468e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.27561760854801676</v>
+        <v>0.27523146366681728</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0019559377995099132</v>
+        <v>-0.0020045940374087928</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00054669081840860755</v>
+        <v>-0.00053487278596278719</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0046247076008984044</v>
+        <v>-0.0046261607253666034</v>
       </c>
       <c r="G7" s="0">
-        <v>0.001024964384447306</v>
+        <v>0.0010272082742182203</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00022324910926209933</v>
+        <v>0.00022261857661820403</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00094497547699223805</v>
+        <v>0.00094497831127537957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.14014838802950028</v>
+        <v>0.14154568781716029</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.056368038153067013</v>
+        <v>-0.056086498244516995</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-6.7979207194763053e-06</v>
+        <v>-6.040387185760856e-06</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00037830636469101721</v>
+        <v>-0.00037810758946388003</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.1766838410474441e-05</v>
+        <v>5.1862984435741061e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0015430197269814293</v>
+        <v>0.0015500783302207018</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0010256893737130568</v>
+        <v>0.001025655276675308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.1458122888117846</v>
+        <v>0.14711869806363861</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0037273536199308307</v>
+        <v>0.0037641819699861198</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0034759958819262512</v>
+        <v>-0.0034877115175389072</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0047745902810428439</v>
+        <v>-0.0047871977116572062</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0011325754146840302</v>
+        <v>0.0011278936070194059</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00017243929964012861</v>
+        <v>-0.00017150423638493417</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00040603390200689694</v>
+        <v>-0.00040504613466689222</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>9.3918260238079476e-05</v>
+        <v>9.3917145718852568e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.39273085861951107</v>
+        <v>0.39314741492938393</v>
       </c>
       <c r="C10" s="0">
-        <v>0.094415385153953507</v>
+        <v>0.094517614334576006</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00020560226393015178</v>
+        <v>-0.00020695867376279719</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00040931171865555719</v>
+        <v>-0.00040861049466860724</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-3.0361713717403703e-05</v>
+        <v>-3.0362476389821758e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00021554839139395471</v>
+        <v>-0.00020923620514694065</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022145979205189354</v>
+        <v>-0.0022146047705424526</v>
       </c>
       <c r="K10" s="0">
-        <v>4.2389378117624332e-06</v>
+        <v>4.2509093789167007e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.458712354898686</v>
+        <v>0.45922856353866776</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.021624512807603826</v>
+        <v>-0.021593580410537532</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0019489780860829258</v>
+        <v>0.0019545053744246524</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0040925438236864165</v>
+        <v>0.0040784966442205823</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0019933183266055018</v>
+        <v>0.0020007912858838409</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00031192546797982796</v>
+        <v>0.00031066480893805157</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0014485594690582103</v>
+        <v>-0.0014562228932255895</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0018717225923208791</v>
+        <v>0.0018717299987688896</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.22329546526406721</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.059724793189473283</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00011182079533862049</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2.0920469092515916e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1.5413541555901201e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.00066904961579139055</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0.00018106208713747352</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -256,54 +397,54 @@
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28605425815375018</v>
+        <v>0.28542056591942916</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30723348576573195</v>
+        <v>0.30680692938138171</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0050366519912486063</v>
+        <v>-0.0051025913885150171</v>
       </c>
       <c r="E3" s="0">
-        <v>-6.159139440913804e-05</v>
+        <v>-5.9794991280831518e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00090677407230415534</v>
+        <v>-0.00092934228152725007</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0004757537152620489</v>
+        <v>0.00047829394993434269</v>
       </c>
       <c r="H3" s="0">
-        <v>-9.3470334125687226e-05</v>
+        <v>-9.4283307556726186e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00077020232959207281</v>
+        <v>-0.00077165770511571845</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.0001854818090707977</v>
+        <v>-0.00018548393596995449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29123570985468972</v>
+        <v>0.29253533375030338</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00243982636913941</v>
+        <v>-0.0022263402853239839</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00011156240016960714</v>
+        <v>0.00011155880145331801</v>
       </c>
       <c r="F4" s="0">
-        <v>1.7853189110290693e-05</v>
+        <v>1.6004215567543777e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00017889573792732603</v>
+        <v>0.00017667253066953436</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0019967513735665043</v>
+        <v>-0.0019906972096622381</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00012833534763744954</v>
+        <v>0.00012630972444644455</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00032555019764213267</v>
+        <v>0.00032550896365457493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30101904182279238</v>
+        <v>0.30088725263343075</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0077086224628601747</v>
+        <v>0.0071917015942276341</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0069530963805919744</v>
+        <v>-0.0069369806132181418</v>
       </c>
       <c r="E5" s="0">
-        <v>-3.3387121585439691e-05</v>
+        <v>-4.1923449265838803e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00018647200700838709</v>
+        <v>0.0001714069724281481</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0014644143918481258</v>
+        <v>-0.0014663963990147202</v>
       </c>
       <c r="H5" s="0">
-        <v>-9.1836984960982858e-06</v>
+        <v>-9.6473429361080211e-06</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00056010951366065051</v>
+        <v>-0.00055877204627907066</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>2.1070898450548103e-05</v>
+        <v>2.1074952247790435e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.26811436606244127</v>
+        <v>0.26810999873557428</v>
       </c>
       <c r="C6" s="0">
-        <v>0.029997961323857295</v>
+        <v>0.030485386792917592</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00012121225068348919</v>
+        <v>-0.00012106210306629609</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.5492241436935451e-05</v>
+        <v>-4.4582938502636487e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.4344151850198246e-05</v>
+        <v>-7.4680074305547971e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0022479246130917437</v>
+        <v>-0.002250816767863424</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.3222682443192468e-05</v>
+        <v>1.3224428360991691e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.27523146366681728</v>
+        <v>0.2751892836656632</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0020045940374087928</v>
+        <v>-0.002027292270727816</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00053487278596278719</v>
+        <v>-0.00051535392059674627</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0046261607253666034</v>
+        <v>-0.0045989034871516078</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0010272082742182203</v>
+        <v>0.0010311058726134165</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00022261857661820403</v>
+        <v>0.00022174724880005611</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00094497831127537957</v>
+        <v>0.00094497651229241697</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.14154568781716029</v>
+        <v>0.13927102453622286</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.056086498244516995</v>
+        <v>-0.056817658015881449</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-6.040387185760856e-06</v>
+        <v>-4.7774748525256892e-06</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00037810758946388003</v>
+        <v>-0.0003779794982115983</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.1862984435741061e-05</v>
+        <v>5.1851010058747484e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0015500783302207018</v>
+        <v>0.0015600055502734324</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.001025655276675308</v>
+        <v>0.0010256688550260851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.14711869806363861</v>
+        <v>0.14492502069455471</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0037641819699861198</v>
+        <v>0.003704344685900098</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0034877115175389072</v>
+        <v>-0.003500801538118558</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0047871977116572062</v>
+        <v>-0.0047990920234884729</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0011278936070194059</v>
+        <v>0.0011361540257582045</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00017150423638493417</v>
+        <v>-0.00017094630318603379</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00040504613466689222</v>
+        <v>-0.00040466425717247548</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>9.3917145718852568e-05</v>
+        <v>9.3916733704429989e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.39314741492938393</v>
+        <v>0.39067369433299259</v>
       </c>
       <c r="C10" s="0">
-        <v>0.094517614334576006</v>
+        <v>0.095074337804723325</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00020695867376279719</v>
+        <v>-0.00020465148143470954</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00040861049466860724</v>
+        <v>-0.00041433147346678026</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-3.0362476389821758e-05</v>
+        <v>-3.0500886050875963e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00020923620514694065</v>
+        <v>-0.00021277334745471491</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022146047705424526</v>
+        <v>-0.0021754302789666865</v>
       </c>
       <c r="K10" s="0">
-        <v>4.2509093789167007e-06</v>
+        <v>4.266278108594479e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.45922856353866776</v>
+        <v>0.45765193985607094</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.021593580410537532</v>
+        <v>-0.021913718573699524</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0019545053744246524</v>
+        <v>0.0019621039043626353</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0040784966442205823</v>
+        <v>0.0039692730693258078</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0020007912858838409</v>
+        <v>0.0020130816708006974</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00031066480893805157</v>
+        <v>0.00030805701500478982</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0014562228932255895</v>
+        <v>-0.0014635449441353888</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0018717299987688896</v>
+        <v>0.0018717108559084261</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.22329546526406721</v>
+        <v>0.29199872748805705</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.059724793189473283</v>
+        <v>-0.068833359765504837</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00011182079533862049</v>
+        <v>0.00013487460348432756</v>
       </c>
       <c r="F12" s="0">
-        <v>2.0920469092515916e-05</v>
+        <v>0.003407206576087795</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>1.5413541555901201e-05</v>
+        <v>0.0016119463330066057</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.00066904961579139055</v>
+        <v>0.0083622066118743867</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0.00018106208713747352</v>
+        <v>8.6750666129009613e-05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.13741721239677299</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.050338661238202513</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.00055210574537016435</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.016970136660584716</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.00069164999027275639</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00052619776070077348</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00074063918909953927</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.0051642249560493458</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.13410121991337584</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.11993976329729276</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00022028854326754636</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.0005285587354493846</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00031138723761299009</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.02275723525473132</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>6.521330062903008e-07</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.28542056591942916</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.30680692938138171</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.29253533375030338</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.30088725263343075</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.26810999873557428</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.2751892836656632</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.13927102453622286</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.14492502069455471</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.39067369433299259</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.45765193985607094</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.29199872748805705</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.13741721239677299</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.13410121991337584</v>
+        <v>0.18096891386129976</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.11993976329729276</v>
+        <v>-0.097582882976205723</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00022028854326754636</v>
+        <v>-0.0003073477555358436</v>
       </c>
       <c r="F14" s="0">
-        <v>0.0005285587354493846</v>
+        <v>0.00018799323876701621</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00031138723761299009</v>
+        <v>-0.0014459175111290418</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.02275723525473132</v>
+        <v>-0.00043602834212469401</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>6.521330062903008e-07</v>
+        <v>-0.0051469038840742665</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.13302238032992111</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.086659431852026084</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.00066266898612809709</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0029886050848886908</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0094668089160002654</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.00018304375531946748</v>
       </c>
     </row>
   </sheetData>
